--- a/input/Script_5_Groupings_Metadata.xlsx
+++ b/input/Script_5_Groupings_Metadata.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lazab\Documents\github\LCMSMS_data_analysis_workflow\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A524A95-04E3-4B68-AE6C-3778917AC3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ABE41E-65CC-4661-9D2F-9B56EAB85826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1490" yWindow="2090" windowWidth="21600" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2290" yWindow="2870" windowWidth="21600" windowHeight="10950" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Multi-jobs" sheetId="2" r:id="rId1"/>
-    <sheet name="All" sheetId="4" r:id="rId2"/>
+    <sheet name="Tutorial" sheetId="5" r:id="rId2"/>
+    <sheet name="All" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="90">
   <si>
     <t>Ionization</t>
   </si>
@@ -638,13 +639,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1A673B-37F6-4003-A7A9-A1EAD8E5D487}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="39.453125" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" customWidth="1"/>
+    <col min="7" max="7" width="21.36328125" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
     <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
@@ -859,7 +862,7 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
         <v>62</v>
@@ -1188,11 +1191,112 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3B69F4-4ECE-4B46-825B-F4B96D3FA56B}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AD7BF9-50D0-41F8-B25A-737BC39F80EC}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1404,7 +1508,7 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
         <v>62</v>
